--- a/HTMLLIST.xlsx
+++ b/HTMLLIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chartercom-my.sharepoint.com/personal/melissa_lutz_charter_com/Documents/Desktop/Roc Note/NWROC-main v23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chartercom-my.sharepoint.com/personal/melissa_lutz_charter_com/Documents/Desktop/Roc Note/NWROC-main v31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_0C7D0A22E93F8741185B381A9CC8C7A0EF35DE69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6375380D-AB2B-441C-8A0E-DF135D7E7204}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_0C7D0A22E93F8741185B381A9CC8C7A0EF35DE69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A0266EA-7A49-4984-AD4E-7F4D5F4345EA}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="5265" windowWidth="27780" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="1470" windowWidth="22335" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Lloyd Biag - P2179642</t>
   </si>
@@ -86,9 +86,6 @@
     <t>LaSeana Craig - P2683661</t>
   </si>
   <si>
-    <t>Maggie Kemp - P2168871</t>
-  </si>
-  <si>
     <t>Steven Macias - P3034580</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Christopher Rea - P3131467</t>
   </si>
   <si>
-    <t>Julie Bi - P3142664</t>
-  </si>
-  <si>
     <t>Joshua Quigley - P3146541</t>
   </si>
   <si>
@@ -155,13 +149,16 @@
     <t>Evan Padfield - P3009924</t>
   </si>
   <si>
-    <t>Jennifer Murray - P3174706</t>
-  </si>
-  <si>
     <t>Joseph Toves - P3179222</t>
   </si>
   <si>
     <t>Susan Jordal - P2795563</t>
+  </si>
+  <si>
+    <t>Ricardo Timothy - P3208437</t>
+  </si>
+  <si>
+    <t>Daniel Hallauer - P3210709</t>
   </si>
 </sst>
 </file>
@@ -217,10 +214,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C40" totalsRowShown="0">
-  <autoFilter ref="A1:C40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C40">
-    <sortCondition ref="A1:A40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C39" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
+    <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last Name (sort A-Z)">
@@ -499,10 +496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C40"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,525 +511,512 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>MID(B2,FIND(" ",B2)+1,((FIND("-",B2)-1)-(FIND(" ",B2)+1)))</f>
-        <v>Bi</v>
+        <f t="shared" ref="A2:A39" si="0">MID(B2,FIND(" ",B2)+1,((FIND("-",B2)-1)-(FIND(" ",B2)+1)))</f>
+        <v>Biag</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B2,""",""",B2,""");")</f>
-        <v>list1.options[1] = new Option("Julie Bi - P3142664","Julie Bi - P3142664");</v>
+        <f t="shared" ref="C2:C39" si="1">CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B2,""",""",B2,""");")</f>
+        <v>list1.options[1] = new Option("Lloyd Biag - P2179642","Lloyd Biag - P2179642");</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>MID(B3,FIND(" ",B3)+1,((FIND("-",B3)-1)-(FIND(" ",B3)+1)))</f>
-        <v>Biag</v>
+        <f t="shared" si="0"/>
+        <v>Bundschuh</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B3,""",""",B3,""");")</f>
-        <v>list1.options[2] = new Option("Lloyd Biag - P2179642","Lloyd Biag - P2179642");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[2] = new Option("Logan Bundschuh - P3132541","Logan Bundschuh - P3132541");</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>MID(B4,FIND(" ",B4)+1,((FIND("-",B4)-1)-(FIND(" ",B4)+1)))</f>
-        <v>Bundschuh</v>
+        <f t="shared" si="0"/>
+        <v>Carter</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B4,""",""",B4,""");")</f>
-        <v>list1.options[3] = new Option("Logan Bundschuh - P3132541","Logan Bundschuh - P3132541");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[3] = new Option("Cordon Carter - P3169756","Cordon Carter - P3169756");</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>MID(B5,FIND(" ",B5)+1,((FIND("-",B5)-1)-(FIND(" ",B5)+1)))</f>
-        <v>Carter</v>
+        <f t="shared" si="0"/>
+        <v>Cortes</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B5,""",""",B5,""");")</f>
-        <v>list1.options[4] = new Option("Cordon Carter - P3169756","Cordon Carter - P3169756");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[4] = new Option("Tony Cortes - P2161794","Tony Cortes - P2161794");</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>MID(B6,FIND(" ",B6)+1,((FIND("-",B6)-1)-(FIND(" ",B6)+1)))</f>
-        <v>Cortes</v>
+        <f t="shared" si="0"/>
+        <v>Craig</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B6,""",""",B6,""");")</f>
-        <v>list1.options[5] = new Option("Tony Cortes - P2161794","Tony Cortes - P2161794");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[5] = new Option("LaSeana Craig - P2683661","LaSeana Craig - P2683661");</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>MID(B7,FIND(" ",B7)+1,((FIND("-",B7)-1)-(FIND(" ",B7)+1)))</f>
-        <v>Craig</v>
+        <f t="shared" si="0"/>
+        <v>DeVega</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B7,""",""",B7,""");")</f>
-        <v>list1.options[6] = new Option("LaSeana Craig - P2683661","LaSeana Craig - P2683661");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[6] = new Option("Joshua DeVega - P2198863","Joshua DeVega - P2198863");</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>MID(B8,FIND(" ",B8)+1,((FIND("-",B8)-1)-(FIND(" ",B8)+1)))</f>
-        <v>DeVega</v>
+        <f t="shared" si="0"/>
+        <v>Gasper</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B8,""",""",B8,""");")</f>
-        <v>list1.options[7] = new Option("Joshua DeVega - P2198863","Joshua DeVega - P2198863");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[7] = new Option("Aaron Gasper - P2186086","Aaron Gasper - P2186086");</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>MID(B9,FIND(" ",B9)+1,((FIND("-",B9)-1)-(FIND(" ",B9)+1)))</f>
-        <v>Gasper</v>
+        <f t="shared" si="0"/>
+        <v>Graham</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B9,""",""",B9,""");")</f>
-        <v>list1.options[8] = new Option("Aaron Gasper - P2186086","Aaron Gasper - P2186086");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[8] = new Option("Tobias Graham - P2196093","Tobias Graham - P2196093");</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>MID(B10,FIND(" ",B10)+1,((FIND("-",B10)-1)-(FIND(" ",B10)+1)))</f>
-        <v>Graham</v>
+        <f t="shared" si="0"/>
+        <v>Hallauer</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B10,""",""",B10,""");")</f>
-        <v>list1.options[9] = new Option("Tobias Graham - P2196093","Tobias Graham - P2196093");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[9] = new Option("Daniel Hallauer - P3210709","Daniel Hallauer - P3210709");</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>MID(B11,FIND(" ",B11)+1,((FIND("-",B11)-1)-(FIND(" ",B11)+1)))</f>
+        <f t="shared" si="0"/>
         <v>Harrison</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B11,""",""",B11,""");")</f>
+        <f t="shared" si="1"/>
         <v>list1.options[10] = new Option("Chadwick Harrison - P2142444","Chadwick Harrison - P2142444");</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>MID(B12,FIND(" ",B12)+1,((FIND("-",B12)-1)-(FIND(" ",B12)+1)))</f>
+        <f t="shared" si="0"/>
         <v>Holt II</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B12,""",""",B12,""");")</f>
+        <f t="shared" si="1"/>
         <v>list1.options[11] = new Option("Brenden Holt II - P3171318","Brenden Holt II - P3171318");</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>MID(B13,FIND(" ",B13)+1,((FIND("-",B13)-1)-(FIND(" ",B13)+1)))</f>
+        <f t="shared" si="0"/>
         <v>Hulett</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B13,""",""",B13,""");")</f>
+        <f t="shared" si="1"/>
         <v>list1.options[12] = new Option("Monica Hulett - P3125617","Monica Hulett - P3125617");</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>MID(B14,FIND(" ",B14)+1,((FIND("-",B14)-1)-(FIND(" ",B14)+1)))</f>
+        <f t="shared" si="0"/>
         <v>Jordal</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B14,""",""",B14,""");")</f>
+        <f t="shared" si="1"/>
         <v>list1.options[13] = new Option("Susan Jordal - P2795563","Susan Jordal - P2795563");</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>MID(B15,FIND(" ",B15)+1,((FIND("-",B15)-1)-(FIND(" ",B15)+1)))</f>
+        <f t="shared" si="0"/>
         <v>Kaltenberg</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B15,""",""",B15,""");")</f>
+        <f t="shared" si="1"/>
         <v>list1.options[14] = new Option("Larry Kaltenberg - P2681866","Larry Kaltenberg - P2681866");</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>MID(B16,FIND(" ",B16)+1,((FIND("-",B16)-1)-(FIND(" ",B16)+1)))</f>
-        <v>Kemp</v>
+        <f t="shared" si="0"/>
+        <v>Lutz</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B16,""",""",B16,""");")</f>
-        <v>list1.options[15] = new Option("Maggie Kemp - P2168871","Maggie Kemp - P2168871");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[15] = new Option("Melissa Lutz - P2889532","Melissa Lutz - P2889532");</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>MID(B17,FIND(" ",B17)+1,((FIND("-",B17)-1)-(FIND(" ",B17)+1)))</f>
-        <v>Lutz</v>
+        <f t="shared" si="0"/>
+        <v>Macias</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B17,""",""",B17,""");")</f>
-        <v>list1.options[16] = new Option("Melissa Lutz - P2889532","Melissa Lutz - P2889532");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[16] = new Option("Steven Macias - P3034580","Steven Macias - P3034580");</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>MID(B18,FIND(" ",B18)+1,((FIND("-",B18)-1)-(FIND(" ",B18)+1)))</f>
-        <v>Macias</v>
+        <f t="shared" si="0"/>
+        <v>Mack</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B18,""",""",B18,""");")</f>
-        <v>list1.options[17] = new Option("Steven Macias - P3034580","Steven Macias - P3034580");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[17] = new Option("Kimberly Mack - P2195863","Kimberly Mack - P2195863");</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>MID(B19,FIND(" ",B19)+1,((FIND("-",B19)-1)-(FIND(" ",B19)+1)))</f>
-        <v>Mack</v>
+        <f t="shared" si="0"/>
+        <v>Martinez</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B19,""",""",B19,""");")</f>
-        <v>list1.options[18] = new Option("Kimberly Mack - P2195863","Kimberly Mack - P2195863");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[18] = new Option("Felix Martinez - P2967964","Felix Martinez - P2967964");</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>MID(B20,FIND(" ",B20)+1,((FIND("-",B20)-1)-(FIND(" ",B20)+1)))</f>
-        <v>Martinez</v>
+        <f t="shared" si="0"/>
+        <v>Padfield</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C20" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B20,""",""",B20,""");")</f>
-        <v>list1.options[19] = new Option("Felix Martinez - P2967964","Felix Martinez - P2967964");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[19] = new Option("Evan Padfield - P3009924","Evan Padfield - P3009924");</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>MID(B21,FIND(" ",B21)+1,((FIND("-",B21)-1)-(FIND(" ",B21)+1)))</f>
-        <v>Murray</v>
+        <f t="shared" si="0"/>
+        <v>Palma</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C21" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B21,""",""",B21,""");")</f>
-        <v>list1.options[20] = new Option("Jennifer Murray - P3174706","Jennifer Murray - P3174706");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[20] = new Option("Gloria Palma - P2725377","Gloria Palma - P2725377");</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>MID(B22,FIND(" ",B22)+1,((FIND("-",B22)-1)-(FIND(" ",B22)+1)))</f>
-        <v>Padfield</v>
+        <f t="shared" si="0"/>
+        <v>Pollard</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C22" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B22,""",""",B22,""");")</f>
-        <v>list1.options[21] = new Option("Evan Padfield - P3009924","Evan Padfield - P3009924");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[21] = new Option("Rachel Pollard - P2677774","Rachel Pollard - P2677774");</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>MID(B23,FIND(" ",B23)+1,((FIND("-",B23)-1)-(FIND(" ",B23)+1)))</f>
-        <v>Palma</v>
+        <f t="shared" si="0"/>
+        <v>Pratt</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C23" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B23,""",""",B23,""");")</f>
-        <v>list1.options[22] = new Option("Gloria Palma - P2725377","Gloria Palma - P2725377");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[22] = new Option("Jonathan Pratt - P2821517","Jonathan Pratt - P2821517");</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>MID(B24,FIND(" ",B24)+1,((FIND("-",B24)-1)-(FIND(" ",B24)+1)))</f>
-        <v>Pollard</v>
+        <f t="shared" si="0"/>
+        <v>Quigley</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B24,""",""",B24,""");")</f>
-        <v>list1.options[23] = new Option("Rachel Pollard - P2677774","Rachel Pollard - P2677774");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[23] = new Option("Joshua Quigley - P3146541","Joshua Quigley - P3146541");</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>MID(B25,FIND(" ",B25)+1,((FIND("-",B25)-1)-(FIND(" ",B25)+1)))</f>
-        <v>Pratt</v>
+        <f t="shared" si="0"/>
+        <v>Quigley</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C25" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B25,""",""",B25,""");")</f>
-        <v>list1.options[24] = new Option("Jonathan Pratt - P2821517","Jonathan Pratt - P2821517");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[24] = new Option("Wayne Quigley - P3024818","Wayne Quigley - P3024818");</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>MID(B26,FIND(" ",B26)+1,((FIND("-",B26)-1)-(FIND(" ",B26)+1)))</f>
-        <v>Quigley</v>
+        <f t="shared" si="0"/>
+        <v>Rea</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B26,""",""",B26,""");")</f>
-        <v>list1.options[25] = new Option("Joshua Quigley - P3146541","Joshua Quigley - P3146541");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[25] = new Option("Christopher Rea - P3131467","Christopher Rea - P3131467");</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>MID(B27,FIND(" ",B27)+1,((FIND("-",B27)-1)-(FIND(" ",B27)+1)))</f>
-        <v>Quigley</v>
+        <f t="shared" si="0"/>
+        <v>Seibert</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B27,""",""",B27,""");")</f>
-        <v>list1.options[26] = new Option("Wayne Quigley - P3024818","Wayne Quigley - P3024818");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[26] = new Option("Peter Seibert - P3117833","Peter Seibert - P3117833");</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>MID(B28,FIND(" ",B28)+1,((FIND("-",B28)-1)-(FIND(" ",B28)+1)))</f>
-        <v>Rea</v>
+        <f t="shared" si="0"/>
+        <v>Staninger</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C28" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B28,""",""",B28,""");")</f>
-        <v>list1.options[27] = new Option("Christopher Rea - P3131467","Christopher Rea - P3131467");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[27] = new Option("Gary Staninger - P2713803","Gary Staninger - P2713803");</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>MID(B29,FIND(" ",B29)+1,((FIND("-",B29)-1)-(FIND(" ",B29)+1)))</f>
-        <v>Seibert</v>
+        <f t="shared" si="0"/>
+        <v>Storch</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C29" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B29,""",""",B29,""");")</f>
-        <v>list1.options[28] = new Option("Peter Seibert - P3117833","Peter Seibert - P3117833");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[28] = new Option("Zachary Storch - P2951559","Zachary Storch - P2951559");</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>MID(B30,FIND(" ",B30)+1,((FIND("-",B30)-1)-(FIND(" ",B30)+1)))</f>
-        <v>Staninger</v>
+        <f t="shared" si="0"/>
+        <v>Thompson</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C30" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B30,""",""",B30,""");")</f>
-        <v>list1.options[29] = new Option("Gary Staninger - P2713803","Gary Staninger - P2713803");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[29] = new Option("Thomas Thompson -  P2181160","Thomas Thompson -  P2181160");</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>MID(B31,FIND(" ",B31)+1,((FIND("-",B31)-1)-(FIND(" ",B31)+1)))</f>
-        <v>Storch</v>
+        <f t="shared" si="0"/>
+        <v>Tiff</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C31" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B31,""",""",B31,""");")</f>
-        <v>list1.options[30] = new Option("Zachary Storch - P2951559","Zachary Storch - P2951559");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[30] = new Option("Ethan Tiff - P3137564","Ethan Tiff - P3137564");</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>MID(B32,FIND(" ",B32)+1,((FIND("-",B32)-1)-(FIND(" ",B32)+1)))</f>
-        <v>Thompson</v>
+        <f t="shared" si="0"/>
+        <v>Timothy</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C32" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B32,""",""",B32,""");")</f>
-        <v>list1.options[31] = new Option("Thomas Thompson -  P2181160","Thomas Thompson -  P2181160");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[31] = new Option("Ricardo Timothy - P3208437","Ricardo Timothy - P3208437");</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>MID(B33,FIND(" ",B33)+1,((FIND("-",B33)-1)-(FIND(" ",B33)+1)))</f>
-        <v>Tiff</v>
+        <f t="shared" si="0"/>
+        <v>Toole</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C33" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B33,""",""",B33,""");")</f>
-        <v>list1.options[32] = new Option("Ethan Tiff - P3137564","Ethan Tiff - P3137564");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[32] = new Option("Ronald Toole - P3125881","Ronald Toole - P3125881");</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>MID(B34,FIND(" ",B34)+1,((FIND("-",B34)-1)-(FIND(" ",B34)+1)))</f>
-        <v>Toole</v>
+        <f t="shared" si="0"/>
+        <v>Toves</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C34" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B34,""",""",B34,""");")</f>
-        <v>list1.options[33] = new Option("Ronald Toole - P3125881","Ronald Toole - P3125881");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[33] = new Option("Joseph Toves - P3179222","Joseph Toves - P3179222");</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>MID(B35,FIND(" ",B35)+1,((FIND("-",B35)-1)-(FIND(" ",B35)+1)))</f>
-        <v>Toves</v>
+        <f t="shared" si="0"/>
+        <v>Tracy</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C35" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B35,""",""",B35,""");")</f>
-        <v>list1.options[34] = new Option("Joseph Toves - P3179222","Joseph Toves - P3179222");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[34] = new Option("Shari Tracy - P2185181","Shari Tracy - P2185181");</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>MID(B36,FIND(" ",B36)+1,((FIND("-",B36)-1)-(FIND(" ",B36)+1)))</f>
-        <v>Tracy</v>
+        <f t="shared" si="0"/>
+        <v>Unga</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C36" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B36,""",""",B36,""");")</f>
-        <v>list1.options[35] = new Option("Shari Tracy - P2185181","Shari Tracy - P2185181");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[35] = new Option("Jordan Unga - P3131714","Jordan Unga - P3131714");</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>MID(B37,FIND(" ",B37)+1,((FIND("-",B37)-1)-(FIND(" ",B37)+1)))</f>
-        <v>Unga</v>
+        <f t="shared" si="0"/>
+        <v>Uta</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B37,""",""",B37,""");")</f>
-        <v>list1.options[36] = new Option("Jordan Unga - P3131714","Jordan Unga - P3131714");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[36] = new Option("Lori Uta - E031668","Lori Uta - E031668");</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>MID(B38,FIND(" ",B38)+1,((FIND("-",B38)-1)-(FIND(" ",B38)+1)))</f>
-        <v>Uta</v>
+        <f t="shared" si="0"/>
+        <v>Washington</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B38,""",""",B38,""");")</f>
-        <v>list1.options[37] = new Option("Lori Uta - E031668","Lori Uta - E031668");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[37] = new Option("Jewuan Washington - P3154948","Jewuan Washington - P3154948");</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>MID(B39,FIND(" ",B39)+1,((FIND("-",B39)-1)-(FIND(" ",B39)+1)))</f>
-        <v>Washington</v>
+        <f t="shared" si="0"/>
+        <v>Wells</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B39,""",""",B39,""");")</f>
-        <v>list1.options[38] = new Option("Jewuan Washington - P3154948","Jewuan Washington - P3154948");</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>MID(B40,FIND(" ",B40)+1,((FIND("-",B40)-1)-(FIND(" ",B40)+1)))</f>
-        <v>Wells</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="str">
-        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B40,""",""",B40,""");")</f>
-        <v>list1.options[39] = new Option("Ashely Wells - P3113877","Ashely Wells - P3113877");</v>
+        <f t="shared" si="1"/>
+        <v>list1.options[38] = new Option("Ashely Wells - P3113877","Ashely Wells - P3113877");</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C38">
-    <sortCondition ref="A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C35">
+    <sortCondition ref="A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/HTMLLIST.xlsx
+++ b/HTMLLIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chartercom-my.sharepoint.com/personal/melissa_lutz_charter_com/Documents/Desktop/Roc Note/NWROC-main v31/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chartercom-my.sharepoint.com/personal/melissa_lutz_charter_com/Documents/Desktop/Roc Note/NWROC-34/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0C7D0A22E93F8741185B381A9CC8C7A0EF35DE69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A0266EA-7A49-4984-AD4E-7F4D5F4345EA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_0C7D0A22E93F8741185B381A9CC8C7A0EF35DE69" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0C9D7CC-E519-4E04-82B3-498B1AC3AD85}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="1470" windowWidth="22335" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="30" windowWidth="21150" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Lloyd Biag - P2179642</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Gary Staninger - P2713803</t>
   </si>
   <si>
-    <t>Tobias Graham - P2196093</t>
-  </si>
-  <si>
     <t>Shari Tracy - P2185181</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Jewuan Washington - P3154948</t>
   </si>
   <si>
-    <t>Lori Uta - E031668</t>
-  </si>
-  <si>
     <t>Cordon Carter - P3169756</t>
   </si>
   <si>
@@ -159,6 +153,18 @@
   </si>
   <si>
     <t>Daniel Hallauer - P3210709</t>
+  </si>
+  <si>
+    <t>Deanna Shafar - P3233373</t>
+  </si>
+  <si>
+    <t>Jesus Benitez - P3225260</t>
+  </si>
+  <si>
+    <t>Josh Pedersen - P2673052</t>
+  </si>
+  <si>
+    <t>Lori Uta - P2164767</t>
   </si>
 </sst>
 </file>
@@ -214,10 +220,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C39" totalsRowShown="0">
-  <autoFilter ref="A1:C39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
-    <sortCondition ref="A1:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last Name (sort A-Z)">
@@ -496,10 +502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C1" sqref="C1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,511 +517,537 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A39" si="0">MID(B2,FIND(" ",B2)+1,((FIND("-",B2)-1)-(FIND(" ",B2)+1)))</f>
-        <v>Biag</v>
+        <f>MID(B2,FIND(" ",B2)+1,((FIND("-",B2)-1)-(FIND(" ",B2)+1)))</f>
+        <v>Benitez</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C39" si="1">CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B2,""",""",B2,""");")</f>
-        <v>list1.options[1] = new Option("Lloyd Biag - P2179642","Lloyd Biag - P2179642");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B2,""",""",B2,""");")</f>
+        <v>list1.options[1] = new Option("Jesus Benitez - P3225260","Jesus Benitez - P3225260");</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Bundschuh</v>
+        <f>MID(B3,FIND(" ",B3)+1,((FIND("-",B3)-1)-(FIND(" ",B3)+1)))</f>
+        <v>Biag</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[2] = new Option("Logan Bundschuh - P3132541","Logan Bundschuh - P3132541");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B3,""",""",B3,""");")</f>
+        <v>list1.options[2] = new Option("Lloyd Biag - P2179642","Lloyd Biag - P2179642");</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Carter</v>
+        <f>MID(B4,FIND(" ",B4)+1,((FIND("-",B4)-1)-(FIND(" ",B4)+1)))</f>
+        <v>Bundschuh</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[3] = new Option("Cordon Carter - P3169756","Cordon Carter - P3169756");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B4,""",""",B4,""");")</f>
+        <v>list1.options[3] = new Option("Logan Bundschuh - P3132541","Logan Bundschuh - P3132541");</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Cortes</v>
+        <f>MID(B5,FIND(" ",B5)+1,((FIND("-",B5)-1)-(FIND(" ",B5)+1)))</f>
+        <v>Carter</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[4] = new Option("Tony Cortes - P2161794","Tony Cortes - P2161794");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B5,""",""",B5,""");")</f>
+        <v>list1.options[4] = new Option("Cordon Carter - P3169756","Cordon Carter - P3169756");</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Craig</v>
+        <f>MID(B6,FIND(" ",B6)+1,((FIND("-",B6)-1)-(FIND(" ",B6)+1)))</f>
+        <v>Cortes</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[5] = new Option("LaSeana Craig - P2683661","LaSeana Craig - P2683661");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B6,""",""",B6,""");")</f>
+        <v>list1.options[5] = new Option("Tony Cortes - P2161794","Tony Cortes - P2161794");</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>DeVega</v>
+        <f>MID(B7,FIND(" ",B7)+1,((FIND("-",B7)-1)-(FIND(" ",B7)+1)))</f>
+        <v>Craig</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[6] = new Option("Joshua DeVega - P2198863","Joshua DeVega - P2198863");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B7,""",""",B7,""");")</f>
+        <v>list1.options[6] = new Option("LaSeana Craig - P2683661","LaSeana Craig - P2683661");</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Gasper</v>
+        <f>MID(B8,FIND(" ",B8)+1,((FIND("-",B8)-1)-(FIND(" ",B8)+1)))</f>
+        <v>DeVega</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[7] = new Option("Aaron Gasper - P2186086","Aaron Gasper - P2186086");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B8,""",""",B8,""");")</f>
+        <v>list1.options[7] = new Option("Joshua DeVega - P2198863","Joshua DeVega - P2198863");</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>Graham</v>
+        <f>MID(B9,FIND(" ",B9)+1,((FIND("-",B9)-1)-(FIND(" ",B9)+1)))</f>
+        <v>Gasper</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[8] = new Option("Tobias Graham - P2196093","Tobias Graham - P2196093");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B9,""",""",B9,""");")</f>
+        <v>list1.options[8] = new Option("Aaron Gasper - P2186086","Aaron Gasper - P2186086");</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B10,FIND(" ",B10)+1,((FIND("-",B10)-1)-(FIND(" ",B10)+1)))</f>
         <v>Hallauer</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B10,""",""",B10,""");")</f>
         <v>list1.options[9] = new Option("Daniel Hallauer - P3210709","Daniel Hallauer - P3210709");</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B11,FIND(" ",B11)+1,((FIND("-",B11)-1)-(FIND(" ",B11)+1)))</f>
         <v>Harrison</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B11,""",""",B11,""");")</f>
         <v>list1.options[10] = new Option("Chadwick Harrison - P2142444","Chadwick Harrison - P2142444");</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B12,FIND(" ",B12)+1,((FIND("-",B12)-1)-(FIND(" ",B12)+1)))</f>
         <v>Holt II</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B12,""",""",B12,""");")</f>
         <v>list1.options[11] = new Option("Brenden Holt II - P3171318","Brenden Holt II - P3171318");</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B13,FIND(" ",B13)+1,((FIND("-",B13)-1)-(FIND(" ",B13)+1)))</f>
         <v>Hulett</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B13,""",""",B13,""");")</f>
         <v>list1.options[12] = new Option("Monica Hulett - P3125617","Monica Hulett - P3125617");</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B14,FIND(" ",B14)+1,((FIND("-",B14)-1)-(FIND(" ",B14)+1)))</f>
         <v>Jordal</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B14,""",""",B14,""");")</f>
         <v>list1.options[13] = new Option("Susan Jordal - P2795563","Susan Jordal - P2795563");</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B15,FIND(" ",B15)+1,((FIND("-",B15)-1)-(FIND(" ",B15)+1)))</f>
         <v>Kaltenberg</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B15,""",""",B15,""");")</f>
         <v>list1.options[14] = new Option("Larry Kaltenberg - P2681866","Larry Kaltenberg - P2681866");</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B16,FIND(" ",B16)+1,((FIND("-",B16)-1)-(FIND(" ",B16)+1)))</f>
         <v>Lutz</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B16,""",""",B16,""");")</f>
         <v>list1.options[15] = new Option("Melissa Lutz - P2889532","Melissa Lutz - P2889532");</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B17,FIND(" ",B17)+1,((FIND("-",B17)-1)-(FIND(" ",B17)+1)))</f>
         <v>Macias</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B17,""",""",B17,""");")</f>
         <v>list1.options[16] = new Option("Steven Macias - P3034580","Steven Macias - P3034580");</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B18,FIND(" ",B18)+1,((FIND("-",B18)-1)-(FIND(" ",B18)+1)))</f>
         <v>Mack</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B18,""",""",B18,""");")</f>
         <v>list1.options[17] = new Option("Kimberly Mack - P2195863","Kimberly Mack - P2195863");</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B19,FIND(" ",B19)+1,((FIND("-",B19)-1)-(FIND(" ",B19)+1)))</f>
         <v>Martinez</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B19,""",""",B19,""");")</f>
         <v>list1.options[18] = new Option("Felix Martinez - P2967964","Felix Martinez - P2967964");</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B20,FIND(" ",B20)+1,((FIND("-",B20)-1)-(FIND(" ",B20)+1)))</f>
         <v>Padfield</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B20,""",""",B20,""");")</f>
         <v>list1.options[19] = new Option("Evan Padfield - P3009924","Evan Padfield - P3009924");</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B21,FIND(" ",B21)+1,((FIND("-",B21)-1)-(FIND(" ",B21)+1)))</f>
         <v>Palma</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B21,""",""",B21,""");")</f>
         <v>list1.options[20] = new Option("Gloria Palma - P2725377","Gloria Palma - P2725377");</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>Pollard</v>
+        <f>MID(B22,FIND(" ",B22)+1,((FIND("-",B22)-1)-(FIND(" ",B22)+1)))</f>
+        <v>Pedersen</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[21] = new Option("Rachel Pollard - P2677774","Rachel Pollard - P2677774");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B22,""",""",B22,""");")</f>
+        <v>list1.options[21] = new Option("Josh Pedersen - P2673052","Josh Pedersen - P2673052");</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>Pratt</v>
+        <f>MID(B23,FIND(" ",B23)+1,((FIND("-",B23)-1)-(FIND(" ",B23)+1)))</f>
+        <v>Pollard</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[22] = new Option("Jonathan Pratt - P2821517","Jonathan Pratt - P2821517");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B23,""",""",B23,""");")</f>
+        <v>list1.options[22] = new Option("Rachel Pollard - P2677774","Rachel Pollard - P2677774");</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>Quigley</v>
+        <f>MID(B24,FIND(" ",B24)+1,((FIND("-",B24)-1)-(FIND(" ",B24)+1)))</f>
+        <v>Pratt</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[23] = new Option("Joshua Quigley - P3146541","Joshua Quigley - P3146541");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B24,""",""",B24,""");")</f>
+        <v>list1.options[23] = new Option("Jonathan Pratt - P2821517","Jonathan Pratt - P2821517");</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B25,FIND(" ",B25)+1,((FIND("-",B25)-1)-(FIND(" ",B25)+1)))</f>
         <v>Quigley</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[24] = new Option("Wayne Quigley - P3024818","Wayne Quigley - P3024818");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B25,""",""",B25,""");")</f>
+        <v>list1.options[24] = new Option("Joshua Quigley - P3146541","Joshua Quigley - P3146541");</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>Rea</v>
+        <f>MID(B26,FIND(" ",B26)+1,((FIND("-",B26)-1)-(FIND(" ",B26)+1)))</f>
+        <v>Quigley</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[25] = new Option("Christopher Rea - P3131467","Christopher Rea - P3131467");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B26,""",""",B26,""");")</f>
+        <v>list1.options[25] = new Option("Wayne Quigley - P3024818","Wayne Quigley - P3024818");</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>Seibert</v>
+        <f>MID(B27,FIND(" ",B27)+1,((FIND("-",B27)-1)-(FIND(" ",B27)+1)))</f>
+        <v>Rea</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[26] = new Option("Peter Seibert - P3117833","Peter Seibert - P3117833");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B27,""",""",B27,""");")</f>
+        <v>list1.options[26] = new Option("Christopher Rea - P3131467","Christopher Rea - P3131467");</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>Staninger</v>
+        <f>MID(B28,FIND(" ",B28)+1,((FIND("-",B28)-1)-(FIND(" ",B28)+1)))</f>
+        <v>Seibert</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[27] = new Option("Gary Staninger - P2713803","Gary Staninger - P2713803");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B28,""",""",B28,""");")</f>
+        <v>list1.options[27] = new Option("Peter Seibert - P3117833","Peter Seibert - P3117833");</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>Storch</v>
+        <f>MID(B29,FIND(" ",B29)+1,((FIND("-",B29)-1)-(FIND(" ",B29)+1)))</f>
+        <v>Shafar</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[28] = new Option("Zachary Storch - P2951559","Zachary Storch - P2951559");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B29,""",""",B29,""");")</f>
+        <v>list1.options[28] = new Option("Deanna Shafar - P3233373","Deanna Shafar - P3233373");</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>Thompson</v>
+        <f>MID(B30,FIND(" ",B30)+1,((FIND("-",B30)-1)-(FIND(" ",B30)+1)))</f>
+        <v>Staninger</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[29] = new Option("Thomas Thompson -  P2181160","Thomas Thompson -  P2181160");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B30,""",""",B30,""");")</f>
+        <v>list1.options[29] = new Option("Gary Staninger - P2713803","Gary Staninger - P2713803");</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>Tiff</v>
+        <f>MID(B31,FIND(" ",B31)+1,((FIND("-",B31)-1)-(FIND(" ",B31)+1)))</f>
+        <v>Storch</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[30] = new Option("Ethan Tiff - P3137564","Ethan Tiff - P3137564");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B31,""",""",B31,""");")</f>
+        <v>list1.options[30] = new Option("Zachary Storch - P2951559","Zachary Storch - P2951559");</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>Timothy</v>
+        <f>MID(B32,FIND(" ",B32)+1,((FIND("-",B32)-1)-(FIND(" ",B32)+1)))</f>
+        <v>Thompson</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[31] = new Option("Ricardo Timothy - P3208437","Ricardo Timothy - P3208437");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B32,""",""",B32,""");")</f>
+        <v>list1.options[31] = new Option("Thomas Thompson -  P2181160","Thomas Thompson -  P2181160");</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>Toole</v>
+        <f>MID(B33,FIND(" ",B33)+1,((FIND("-",B33)-1)-(FIND(" ",B33)+1)))</f>
+        <v>Tiff</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[32] = new Option("Ronald Toole - P3125881","Ronald Toole - P3125881");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B33,""",""",B33,""");")</f>
+        <v>list1.options[32] = new Option("Ethan Tiff - P3137564","Ethan Tiff - P3137564");</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>Toves</v>
+        <f>MID(B34,FIND(" ",B34)+1,((FIND("-",B34)-1)-(FIND(" ",B34)+1)))</f>
+        <v>Timothy</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[33] = new Option("Joseph Toves - P3179222","Joseph Toves - P3179222");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B34,""",""",B34,""");")</f>
+        <v>list1.options[33] = new Option("Ricardo Timothy - P3208437","Ricardo Timothy - P3208437");</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>Tracy</v>
+        <f>MID(B35,FIND(" ",B35)+1,((FIND("-",B35)-1)-(FIND(" ",B35)+1)))</f>
+        <v>Toole</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[34] = new Option("Shari Tracy - P2185181","Shari Tracy - P2185181");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B35,""",""",B35,""");")</f>
+        <v>list1.options[34] = new Option("Ronald Toole - P3125881","Ronald Toole - P3125881");</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>Unga</v>
+        <f>MID(B36,FIND(" ",B36)+1,((FIND("-",B36)-1)-(FIND(" ",B36)+1)))</f>
+        <v>Toves</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[35] = new Option("Jordan Unga - P3131714","Jordan Unga - P3131714");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B36,""",""",B36,""");")</f>
+        <v>list1.options[35] = new Option("Joseph Toves - P3179222","Joseph Toves - P3179222");</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>Uta</v>
+        <f>MID(B37,FIND(" ",B37)+1,((FIND("-",B37)-1)-(FIND(" ",B37)+1)))</f>
+        <v>Tracy</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[36] = new Option("Lori Uta - E031668","Lori Uta - E031668");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B37,""",""",B37,""");")</f>
+        <v>list1.options[36] = new Option("Shari Tracy - P2185181","Shari Tracy - P2185181");</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>Washington</v>
+        <f>MID(B38,FIND(" ",B38)+1,((FIND("-",B38)-1)-(FIND(" ",B38)+1)))</f>
+        <v>Unga</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[37] = new Option("Jewuan Washington - P3154948","Jewuan Washington - P3154948");</v>
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B38,""",""",B38,""");")</f>
+        <v>list1.options[37] = new Option("Jordan Unga - P3131714","Jordan Unga - P3131714");</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f>MID(B39,FIND(" ",B39)+1,((FIND("-",B39)-1)-(FIND(" ",B39)+1)))</f>
+        <v>Uta</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="str">
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B39,""",""",B39,""");")</f>
+        <v>list1.options[38] = new Option("Lori Uta - P2164767","Lori Uta - P2164767");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>MID(B40,FIND(" ",B40)+1,((FIND("-",B40)-1)-(FIND(" ",B40)+1)))</f>
+        <v>Washington</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="str">
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B40,""",""",B40,""");")</f>
+        <v>list1.options[39] = new Option("Jewuan Washington - P3154948","Jewuan Washington - P3154948");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>MID(B41,FIND(" ",B41)+1,((FIND("-",B41)-1)-(FIND(" ",B41)+1)))</f>
         <v>Wells</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>list1.options[38] = new Option("Ashely Wells - P3113877","Ashely Wells - P3113877");</v>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("list1.options[",ROW()-1,"] = new Option(""",B41,""",""",B41,""");")</f>
+        <v>list1.options[40] = new Option("Ashely Wells - P3113877","Ashely Wells - P3113877");</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C35">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C34">
     <sortCondition ref="A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,6 +1059,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027BFD3391DD3DC408564647A89ED4BE5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53faa16b1d488b26a085bd45927af52d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1140,12 +1178,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1156,6 +1188,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4CF8E-4625-4948-9F36-584FF2EB0CAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC8ABE42-72BB-4679-BDD8-EBB2EC6EA1B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1171,21 +1218,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17D4CF8E-4625-4948-9F36-584FF2EB0CAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9439EBDF-259F-4264-B80B-255B8051DE15}">
   <ds:schemaRefs>
